--- a/Sus_Arm_points.xlsx
+++ b/Sus_Arm_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/Local_Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7390B-0EED-4E4D-B9B4-7E1A11A8DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76353A1-01F6-4E4A-A769-77E28D7CF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18540" yWindow="500" windowWidth="15060" windowHeight="17440" xr2:uid="{995C672A-481D-3A45-B7A3-E308BE17D4A1}"/>
   </bookViews>

--- a/Sus_Arm_points.xlsx
+++ b/Sus_Arm_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/Local_Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/taiyangie-LinkageForceAnalyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76353A1-01F6-4E4A-A769-77E28D7CF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD448E-817F-3940-8B3D-9D9E8026DC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="500" windowWidth="15060" windowHeight="17440" xr2:uid="{995C672A-481D-3A45-B7A3-E308BE17D4A1}"/>
+    <workbookView xWindow="14360" yWindow="500" windowWidth="15060" windowHeight="17440" xr2:uid="{995C672A-481D-3A45-B7A3-E308BE17D4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +494,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,471 +577,465 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20.0245</v>
-      </c>
-      <c r="D2" s="2">
-        <v>20.0245</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20.4755</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20.4755</v>
-      </c>
-      <c r="G2" s="2">
-        <v>20.022400000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="I2" s="2">
-        <v>20.0245</v>
-      </c>
-      <c r="J2" s="2">
-        <v>20.0245</v>
-      </c>
-      <c r="K2" s="2">
-        <v>20.4755</v>
-      </c>
-      <c r="L2" s="2">
-        <v>20.4755</v>
-      </c>
-      <c r="M2" s="2">
-        <v>20.022400000000001</v>
-      </c>
-      <c r="N2" s="2">
-        <f>26.0001 + 52.25</f>
-        <v>78.250100000000003</v>
-      </c>
-      <c r="O2" s="2">
-        <f>28.5 + 52.25</f>
-        <v>80.75</v>
-      </c>
-      <c r="P2" s="2">
-        <f>28.5 + 52.25</f>
-        <v>80.75</v>
-      </c>
-      <c r="Q2" s="2">
-        <f xml:space="preserve"> 52.25 + 28.125</f>
-        <v>80.375</v>
-      </c>
-      <c r="R2" s="2">
-        <f xml:space="preserve"> 52.25 + 28.125</f>
-        <v>80.375</v>
-      </c>
-      <c r="S2" s="2">
-        <f xml:space="preserve"> 52.25 + 27.7114</f>
-        <v>79.961399999999998</v>
-      </c>
-      <c r="T2" s="2">
-        <v>78.250100000000003</v>
-      </c>
-      <c r="U2" s="2">
-        <v>80.75</v>
-      </c>
-      <c r="V2" s="2">
-        <v>80.75</v>
-      </c>
-      <c r="W2" s="2">
-        <v>80.375</v>
-      </c>
-      <c r="X2" s="2">
-        <v>80.375</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>79.961399999999998</v>
+      <c r="B2">
+        <v>30.286300000000001</v>
+      </c>
+      <c r="C2">
+        <v>27.3643</v>
+      </c>
+      <c r="D2">
+        <v>27.3643</v>
+      </c>
+      <c r="E2">
+        <v>27.7013</v>
+      </c>
+      <c r="F2">
+        <v>27.7013</v>
+      </c>
+      <c r="G2">
+        <v>28.214238999999999</v>
+      </c>
+      <c r="H2">
+        <v>30.286300000000001</v>
+      </c>
+      <c r="I2">
+        <v>27.3643</v>
+      </c>
+      <c r="J2">
+        <v>27.3643</v>
+      </c>
+      <c r="K2">
+        <v>27.7013</v>
+      </c>
+      <c r="L2">
+        <v>27.7013</v>
+      </c>
+      <c r="M2">
+        <v>28.214238999999999</v>
+      </c>
+      <c r="N2">
+        <v>91.979299999999995</v>
+      </c>
+      <c r="O2">
+        <v>88.884299999999996</v>
+      </c>
+      <c r="P2">
+        <v>88.884299999999996</v>
+      </c>
+      <c r="Q2">
+        <v>89.404300000000006</v>
+      </c>
+      <c r="R2">
+        <v>89.404300000000006</v>
+      </c>
+      <c r="S2">
+        <v>89.344300000000004</v>
+      </c>
+      <c r="T2">
+        <v>91.979299999999995</v>
+      </c>
+      <c r="U2">
+        <v>88.884299999999996</v>
+      </c>
+      <c r="V2">
+        <v>88.884299999999996</v>
+      </c>
+      <c r="W2">
+        <v>89.404300000000006</v>
+      </c>
+      <c r="X2">
+        <v>89.404300000000006</v>
+      </c>
+      <c r="Y2">
+        <v>89.344300000000004</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>-23.7576</v>
+        <v>-18</v>
       </c>
       <c r="C3" s="2">
-        <v>-23.7576</v>
+        <v>-19.244</v>
       </c>
       <c r="D3" s="2">
-        <v>-23.7576</v>
+        <v>-19.244</v>
       </c>
       <c r="E3" s="2">
-        <v>-23.4924</v>
+        <v>-19.143000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>-23.4924</v>
+        <v>-19.143000000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>-22.260899999999999</v>
+        <v>-18.125823</v>
       </c>
       <c r="H3" s="2">
-        <v>23.7576</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>23.7576</v>
+        <v>19.244</v>
       </c>
       <c r="J3" s="2">
-        <v>23.7576</v>
+        <v>19.244</v>
       </c>
       <c r="K3" s="2">
-        <v>23.4924</v>
+        <v>19.143000000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>23.4924</v>
+        <v>19.143000000000001</v>
       </c>
       <c r="M3" s="2">
-        <v>22.260899999999999</v>
+        <v>18.125823</v>
       </c>
       <c r="N3" s="2">
-        <v>-22.8565</v>
+        <v>-21.85</v>
       </c>
       <c r="O3" s="2">
-        <v>-22.878299999999999</v>
+        <v>-21.015999999999998</v>
       </c>
       <c r="P3" s="2">
-        <v>-22.878299999999999</v>
+        <v>-21.015999999999998</v>
       </c>
       <c r="Q3" s="2">
-        <v>-22.875</v>
+        <v>-20.236999999999998</v>
       </c>
       <c r="R3" s="2">
-        <v>-22.875</v>
+        <v>-20.236999999999998</v>
       </c>
       <c r="S3" s="2">
-        <v>-21.603899999999999</v>
+        <v>-18.412199999999999</v>
       </c>
       <c r="T3" s="2">
-        <v>22.8565</v>
+        <v>21.85</v>
       </c>
       <c r="U3" s="2">
-        <v>22.878299999999999</v>
+        <v>21.015999999999998</v>
       </c>
       <c r="V3" s="2">
-        <v>22.878299999999999</v>
+        <v>21.015999999999998</v>
       </c>
       <c r="W3" s="2">
-        <v>22.875</v>
+        <v>20.236999999999998</v>
       </c>
       <c r="X3" s="2">
-        <v>22.875</v>
+        <v>20.236999999999998</v>
       </c>
       <c r="Y3" s="2">
-        <v>21.603899999999999</v>
+        <v>18.412199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>5.125</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>5.0560999999999998</v>
+        <v>5.5730000000000004</v>
       </c>
       <c r="D4" s="2">
-        <v>5.0560999999999998</v>
+        <v>5.5730000000000004</v>
       </c>
       <c r="E4" s="2">
-        <v>12.5379</v>
+        <v>12.097</v>
       </c>
       <c r="F4" s="2">
-        <v>12.5379</v>
+        <v>12.097</v>
       </c>
       <c r="G4" s="2">
-        <v>4.9561999999999999</v>
+        <v>12.295837000000001</v>
       </c>
       <c r="H4" s="2">
-        <v>5.125</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="I4" s="2">
-        <v>5.0560999999999998</v>
+        <v>5.5730000000000004</v>
       </c>
       <c r="J4" s="2">
-        <v>5.0560999999999998</v>
+        <v>5.5730000000000004</v>
       </c>
       <c r="K4" s="2">
-        <v>12.5379</v>
+        <v>12.097</v>
       </c>
       <c r="L4" s="2">
-        <v>12.5379</v>
+        <v>12.097</v>
       </c>
       <c r="M4" s="2">
-        <v>4.9561999999999999</v>
+        <v>12.295837000000001</v>
       </c>
       <c r="N4" s="2">
-        <v>5.548</v>
+        <v>10.433</v>
       </c>
       <c r="O4" s="2">
-        <v>5.298</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="P4" s="2">
-        <v>5.298</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="Q4" s="2">
-        <v>12.548</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="R4" s="2">
-        <v>12.548</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="S4" s="2">
-        <v>5.2344999999999997</v>
+        <v>12.764799999999999</v>
       </c>
       <c r="T4" s="2">
-        <v>5.548</v>
+        <v>10.433</v>
       </c>
       <c r="U4" s="2">
-        <v>5.298</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="V4" s="2">
-        <v>5.298</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="W4" s="2">
-        <v>12.548</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="X4" s="2">
-        <v>12.548</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="Y4" s="2">
-        <v>5.2344999999999997</v>
+        <v>12.764799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>25.25</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15.25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>25.25</v>
-      </c>
-      <c r="G5" s="2">
-        <v>19.436399999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="I5" s="2">
-        <v>14.75</v>
-      </c>
-      <c r="J5" s="2">
-        <v>25.25</v>
-      </c>
-      <c r="K5" s="2">
-        <v>15.25</v>
-      </c>
-      <c r="L5" s="2">
-        <v>25.25</v>
-      </c>
-      <c r="M5" s="2">
-        <v>19.436399999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>77</v>
-      </c>
-      <c r="O5" s="2">
-        <v>69</v>
-      </c>
-      <c r="P5" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>69.875</v>
-      </c>
-      <c r="R5" s="2">
-        <v>77</v>
-      </c>
-      <c r="S5" s="2">
-        <v>77.7</v>
-      </c>
-      <c r="T5" s="2">
-        <v>77</v>
-      </c>
-      <c r="U5" s="2">
-        <v>69</v>
-      </c>
-      <c r="V5" s="2">
-        <v>77</v>
-      </c>
-      <c r="W5" s="2">
-        <v>69.875</v>
-      </c>
-      <c r="X5" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>77.7</v>
+      <c r="B5">
+        <v>31.123826999999999</v>
+      </c>
+      <c r="C5">
+        <v>23.5533</v>
+      </c>
+      <c r="D5">
+        <v>37.759299999999996</v>
+      </c>
+      <c r="E5">
+        <v>28.728300000000001</v>
+      </c>
+      <c r="F5">
+        <v>39.159300000000002</v>
+      </c>
+      <c r="G5">
+        <v>29.2363</v>
+      </c>
+      <c r="H5">
+        <v>31.123826999999999</v>
+      </c>
+      <c r="I5">
+        <v>23.5533</v>
+      </c>
+      <c r="J5">
+        <v>37.759299999999996</v>
+      </c>
+      <c r="K5">
+        <v>28.728300000000001</v>
+      </c>
+      <c r="L5">
+        <v>39.159300000000002</v>
+      </c>
+      <c r="M5">
+        <v>29.2363</v>
+      </c>
+      <c r="N5">
+        <v>97.776299999999992</v>
+      </c>
+      <c r="O5">
+        <v>86.759299999999996</v>
+      </c>
+      <c r="P5">
+        <v>97.076300000000003</v>
+      </c>
+      <c r="Q5">
+        <v>86.835299999999989</v>
+      </c>
+      <c r="R5">
+        <v>98.173300000000012</v>
+      </c>
+      <c r="S5">
+        <v>89.365399999999994</v>
+      </c>
+      <c r="T5">
+        <v>97.776299999999992</v>
+      </c>
+      <c r="U5">
+        <v>86.759299999999996</v>
+      </c>
+      <c r="V5">
+        <v>97.076300000000003</v>
+      </c>
+      <c r="W5">
+        <v>86.835299999999989</v>
+      </c>
+      <c r="X5">
+        <v>98.173300000000012</v>
+      </c>
+      <c r="Y5">
+        <v>89.365399999999994</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2">
-        <v>-7.2</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="C6" s="2">
-        <v>-6.0625</v>
+        <v>-9.4649999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>-6.0625</v>
+        <v>-7.7039999999999997</v>
       </c>
       <c r="E6" s="2">
-        <v>-10.3125</v>
+        <v>-10.121</v>
       </c>
       <c r="F6" s="2">
-        <v>-10.3125</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="G6" s="2">
-        <v>-16.005800000000001</v>
+        <v>-13.094795</v>
       </c>
       <c r="H6" s="2">
-        <v>7.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I6" s="2">
-        <v>6.0625</v>
+        <v>9.4649999999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>6.0625</v>
+        <v>7.7039999999999997</v>
       </c>
       <c r="K6" s="2">
-        <v>10.3125</v>
+        <v>10.121</v>
       </c>
       <c r="L6" s="2">
-        <v>10.3125</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="M6" s="2">
-        <v>16.005800000000001</v>
+        <v>13.094795</v>
       </c>
       <c r="N6" s="2">
-        <v>-8.6805000000000003</v>
+        <v>-8.8650000000000002</v>
       </c>
       <c r="O6" s="2">
-        <v>-10.862500000000001</v>
+        <v>-7.9379999999999997</v>
       </c>
       <c r="P6" s="2">
-        <v>-9.8625000000000007</v>
+        <v>-9.8659999999999997</v>
       </c>
       <c r="Q6" s="2">
-        <v>-12.0625</v>
+        <v>-9.7149999999999999</v>
       </c>
       <c r="R6" s="2">
-        <v>-10.625</v>
+        <v>-7.3540000000000001</v>
       </c>
       <c r="S6" s="2">
-        <v>-11.867800000000001</v>
+        <v>-12.734299999999999</v>
       </c>
       <c r="T6" s="2">
-        <v>8.6805000000000003</v>
+        <v>8.8650000000000002</v>
       </c>
       <c r="U6" s="2">
-        <v>10.862500000000001</v>
+        <v>7.9379999999999997</v>
       </c>
       <c r="V6" s="2">
-        <v>9.8625000000000007</v>
+        <v>9.8659999999999997</v>
       </c>
       <c r="W6" s="2">
-        <v>12.0625</v>
+        <v>9.7149999999999999</v>
       </c>
       <c r="X6" s="2">
-        <v>10.625</v>
+        <v>7.3540000000000001</v>
       </c>
       <c r="Y6" s="2">
-        <v>11.867800000000001</v>
+        <v>12.734299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2">
+        <v>6.3259910000000001</v>
+      </c>
+      <c r="C7" s="2">
         <v>5.125</v>
       </c>
-      <c r="C7" s="2">
-        <v>3.875</v>
-      </c>
       <c r="D7" s="2">
-        <v>3.875</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="E7" s="2">
-        <v>9.625</v>
+        <v>9.3390000000000004</v>
       </c>
       <c r="F7" s="2">
-        <v>8.875</v>
+        <v>8.7050000000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>16.691400000000002</v>
+        <v>27.112950000000001</v>
       </c>
       <c r="H7" s="2">
+        <v>6.3259910000000001</v>
+      </c>
+      <c r="I7" s="2">
         <v>5.125</v>
       </c>
-      <c r="I7" s="2">
-        <v>3.875</v>
-      </c>
       <c r="J7" s="2">
-        <v>3.875</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="K7" s="2">
-        <v>9.625</v>
+        <v>9.3390000000000004</v>
       </c>
       <c r="L7" s="2">
-        <v>8.875</v>
+        <v>8.7050000000000001</v>
       </c>
       <c r="M7" s="2">
-        <v>16.691400000000002</v>
+        <v>27.112950000000001</v>
       </c>
       <c r="N7" s="2">
-        <v>6.375</v>
+        <v>9.2050000000000001</v>
       </c>
       <c r="O7" s="2">
-        <v>4.8</v>
+        <v>5.8529999999999998</v>
       </c>
       <c r="P7" s="2">
-        <v>4.55</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="Q7" s="2">
-        <v>10.25</v>
+        <v>11.01</v>
       </c>
       <c r="R7" s="2">
-        <v>9.5</v>
+        <v>11.212</v>
       </c>
       <c r="S7" s="2">
-        <v>17.2407</v>
+        <v>17.716799999999999</v>
       </c>
       <c r="T7" s="2">
-        <v>6.375</v>
+        <v>9.2050000000000001</v>
       </c>
       <c r="U7" s="2">
-        <v>4.8</v>
+        <v>5.8529999999999998</v>
       </c>
       <c r="V7" s="2">
-        <v>4.55</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="W7" s="2">
-        <v>10.25</v>
+        <v>11.01</v>
       </c>
       <c r="X7" s="2">
-        <v>9.5</v>
+        <v>11.212</v>
       </c>
       <c r="Y7" s="2">
-        <v>17.2407</v>
+        <v>17.716799999999999</v>
       </c>
     </row>
   </sheetData>
